--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_7_40.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_7_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2299664.512350046</v>
+        <v>2299139.329981014</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16612500.99216496</v>
+        <v>16612500.99216495</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>278692.0725916861</v>
+        <v>278692.072591686</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>225.493319739234</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
@@ -670,7 +670,7 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>267.6420982094165</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>400.806900043077</v>
@@ -727,7 +727,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>177.2701778859457</v>
+        <v>38.06681907982148</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>310.7925313457772</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
         <v>433.7610480884109</v>
@@ -910,7 +910,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>301.0908484151769</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -1062,19 +1062,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>154.6981041384788</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>233.401364052569</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>430.4313829879808</v>
       </c>
       <c r="D8" t="n">
-        <v>378.4804603970944</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>29.43699739328775</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
@@ -1293,7 +1293,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>116.0434079398616</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>120.1472970361157</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800586</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869772998</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932877</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -1387,10 +1387,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>286.2388530112158</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313282</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800129</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556917</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561532</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1435,10 +1435,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864823</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>404.203262463343</v>
       </c>
     </row>
     <row r="12">
@@ -1530,7 +1530,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
@@ -1542,10 +1542,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>43.48898701015861</v>
       </c>
       <c r="H13" t="n">
-        <v>31.24391673888106</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800586</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869772998</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932877</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
@@ -1627,7 +1627,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791313282</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800129</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556917</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561532</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655127</v>
+        <v>358.9907805655105</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864823</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -1770,7 +1770,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>24.62703520776638</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1782,7 +1782,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1821,13 +1821,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>266.8594808797418</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800586</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869772998</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932877</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
@@ -1861,10 +1861,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>286.2388530112158</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791313282</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800129</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -1912,7 +1912,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633428</v>
       </c>
     </row>
     <row r="18">
@@ -2019,10 +2019,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>103.8284742946034</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>172.6623007436909</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800586</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884122</v>
+        <v>433.7610480884104</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
@@ -2101,7 +2101,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791313282</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800129</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556917</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561532</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2146,10 +2146,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864823</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>404.203262463343</v>
       </c>
     </row>
     <row r="21">
@@ -2253,7 +2253,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>160.788496495006</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2338,7 +2338,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791295968</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655127</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
         <v>400.806900043077</v>
@@ -2490,7 +2490,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>24.34318456170439</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2730,7 +2730,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>18.05677735225717</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -3268,7 +3268,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884115</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
         <v>431.5506869772999</v>
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>422.036574780059</v>
       </c>
       <c r="C38" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.412621479131467</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
         <v>217.8665548556918</v>
@@ -3562,16 +3562,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3675,10 +3675,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3726,7 +3726,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>128.7778691150967</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -3742,25 +3742,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884123</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.412621479131467</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
@@ -3799,7 +3799,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -3915,7 +3915,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>85.55329631630659</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3966,7 +3966,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3994,7 +3994,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
         <v>217.8665548556918</v>
@@ -4036,10 +4036,10 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.8069000430791</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400.4118020839785</v>
+        <v>153.4764845146214</v>
       </c>
       <c r="C2" t="n">
-        <v>366.3097333078059</v>
+        <v>119.3744157384487</v>
       </c>
       <c r="D2" t="n">
-        <v>334.4403525226545</v>
+        <v>87.50503495329731</v>
       </c>
       <c r="E2" t="n">
-        <v>304.7060117213537</v>
+        <v>57.77069415199655</v>
       </c>
       <c r="F2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K2" t="n">
-        <v>687.9235674375537</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O2" t="n">
         <v>687.9235674375537</v>
@@ -4366,16 +4366,16 @@
         <v>1613.531556264254</v>
       </c>
       <c r="V2" t="n">
-        <v>1250.914606198081</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="W2" t="n">
-        <v>846.059151609114</v>
+        <v>1208.676101675288</v>
       </c>
       <c r="X2" t="n">
-        <v>426.9166881884247</v>
+        <v>789.5336382545983</v>
       </c>
       <c r="Y2" t="n">
-        <v>422.6709685284822</v>
+        <v>381.2475145542517</v>
       </c>
     </row>
     <row r="3">
@@ -4412,19 +4412,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M3" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N3" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O3" t="n">
-        <v>804.6185656731816</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4491,16 +4491,16 @@
         <v>120.5233537662982</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>269.215608100497</v>
       </c>
       <c r="M4" t="n">
-        <v>1108.937756271182</v>
+        <v>689.2685070454004</v>
       </c>
       <c r="N4" t="n">
-        <v>1528.990655216085</v>
+        <v>1109.321405990304</v>
       </c>
       <c r="O4" t="n">
         <v>1528.990655216085</v>
@@ -4512,28 +4512,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1537.942061378414</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T4" t="n">
-        <v>1292.062614956869</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U4" t="n">
-        <v>1292.062614956869</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="V4" t="n">
-        <v>1292.062614956869</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="W4" t="n">
-        <v>1292.062614956869</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="X4" t="n">
-        <v>1292.062614956869</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="Y4" t="n">
-        <v>1292.062614956869</v>
+        <v>1151.45316161735</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2187.524650040843</v>
+        <v>1786.126818664106</v>
       </c>
       <c r="C5" t="n">
-        <v>1749.382177224266</v>
+        <v>1347.98434584753</v>
       </c>
       <c r="D5" t="n">
-        <v>1313.47239239871</v>
+        <v>912.0745610219742</v>
       </c>
       <c r="E5" t="n">
-        <v>879.6976475570054</v>
+        <v>478.2998161802694</v>
       </c>
       <c r="F5" t="n">
-        <v>451.8302179662132</v>
+        <v>50.4323865894772</v>
       </c>
       <c r="G5" t="n">
-        <v>50.43238658947705</v>
+        <v>50.4323865894772</v>
       </c>
       <c r="H5" t="n">
-        <v>50.43238658947705</v>
+        <v>50.4323865894772</v>
       </c>
       <c r="I5" t="n">
-        <v>50.43238658947705</v>
+        <v>50.4323865894772</v>
       </c>
       <c r="J5" t="n">
-        <v>485.687074042395</v>
+        <v>485.6870740423951</v>
       </c>
       <c r="K5" t="n">
-        <v>1109.787858087173</v>
+        <v>1109.787858087175</v>
       </c>
       <c r="L5" t="n">
-        <v>1181.865694717422</v>
+        <v>1181.865694717428</v>
       </c>
       <c r="M5" t="n">
-        <v>1181.865694717422</v>
+        <v>1181.865694717428</v>
       </c>
       <c r="N5" t="n">
-        <v>1181.865694717422</v>
+        <v>1181.865694717428</v>
       </c>
       <c r="O5" t="n">
-        <v>1181.865694717422</v>
+        <v>1181.865694717428</v>
       </c>
       <c r="P5" t="n">
-        <v>1805.966478762201</v>
+        <v>1805.966478762208</v>
       </c>
       <c r="Q5" t="n">
-        <v>2352.465264720795</v>
+        <v>2352.465264720803</v>
       </c>
       <c r="R5" t="n">
-        <v>2521.619329473852</v>
+        <v>2521.61932947386</v>
       </c>
       <c r="S5" t="n">
-        <v>2521.619329473852</v>
+        <v>2521.61932947386</v>
       </c>
       <c r="T5" t="n">
-        <v>2521.619329473852</v>
+        <v>2521.61932947386</v>
       </c>
       <c r="U5" t="n">
-        <v>2521.619329473852</v>
+        <v>2521.61932947386</v>
       </c>
       <c r="V5" t="n">
-        <v>2521.619329473852</v>
+        <v>2521.61932947386</v>
       </c>
       <c r="W5" t="n">
-        <v>2520.80427892529</v>
+        <v>2116.763874884893</v>
       </c>
       <c r="X5" t="n">
-        <v>2505.702219545004</v>
+        <v>1812.631704768553</v>
       </c>
       <c r="Y5" t="n">
-        <v>2501.456499885062</v>
+        <v>1808.38598510861</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>556.6041315807698</v>
+        <v>556.6041315807699</v>
       </c>
       <c r="C6" t="n">
-        <v>450.1476704174121</v>
+        <v>450.1476704174123</v>
       </c>
       <c r="D6" t="n">
-        <v>355.0573815639654</v>
+        <v>355.0573815639655</v>
       </c>
       <c r="E6" t="n">
-        <v>260.9369668909191</v>
+        <v>260.9369668909192</v>
       </c>
       <c r="F6" t="n">
-        <v>177.5531285070807</v>
+        <v>177.5531285070808</v>
       </c>
       <c r="G6" t="n">
-        <v>92.16803877326458</v>
+        <v>92.16803877326473</v>
       </c>
       <c r="H6" t="n">
-        <v>50.43238658947705</v>
+        <v>50.4323865894772</v>
       </c>
       <c r="I6" t="n">
-        <v>76.49605974993464</v>
+        <v>76.4960597499348</v>
       </c>
       <c r="J6" t="n">
-        <v>401.054384716147</v>
+        <v>401.0543847161471</v>
       </c>
       <c r="K6" t="n">
-        <v>1025.155168760925</v>
+        <v>1025.155168760928</v>
       </c>
       <c r="L6" t="n">
-        <v>1025.155168760925</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>1025.155168760925</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>1025.155168760925</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>1025.155168760925</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1649.255952805704</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1713.672148068286</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
         <v>1713.672148068286</v>
@@ -4685,13 +4685,13 @@
         <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>959.2612476424322</v>
+        <v>959.2612476424324</v>
       </c>
       <c r="X6" t="n">
-        <v>804.3938118813122</v>
+        <v>804.3938118813123</v>
       </c>
       <c r="Y6" t="n">
-        <v>677.908032660533</v>
+        <v>677.9080326605331</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>773.6949256906682</v>
+        <v>1040.830597976034</v>
       </c>
       <c r="C7" t="n">
-        <v>601.1332141738932</v>
+        <v>868.2688864592589</v>
       </c>
       <c r="D7" t="n">
-        <v>435.2552213754159</v>
+        <v>702.3908936607816</v>
       </c>
       <c r="E7" t="n">
-        <v>278.9945101244272</v>
+        <v>532.6328899115188</v>
       </c>
       <c r="F7" t="n">
-        <v>278.9945101244272</v>
+        <v>355.925835873275</v>
       </c>
       <c r="G7" t="n">
-        <v>278.9945101244272</v>
+        <v>190.3345608991027</v>
       </c>
       <c r="H7" t="n">
-        <v>139.0923358148017</v>
+        <v>50.4323865894772</v>
       </c>
       <c r="I7" t="n">
-        <v>50.43238658947705</v>
+        <v>50.4323865894772</v>
       </c>
       <c r="J7" t="n">
-        <v>137.0120717541669</v>
+        <v>50.4323865894772</v>
       </c>
       <c r="K7" t="n">
-        <v>266.2978593068783</v>
+        <v>325.1908411606128</v>
       </c>
       <c r="L7" t="n">
-        <v>684.5077410748394</v>
+        <v>743.4007229285739</v>
       </c>
       <c r="M7" t="n">
-        <v>1143.991608255752</v>
+        <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>1586.250411413397</v>
+        <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>2005.919660639178</v>
+        <v>2064.812642492913</v>
       </c>
       <c r="P7" t="n">
-        <v>2353.42655460952</v>
+        <v>2412.319536463255</v>
       </c>
       <c r="Q7" t="n">
-        <v>2521.619329473852</v>
+        <v>2521.61932947386</v>
       </c>
       <c r="R7" t="n">
-        <v>2521.619329473852</v>
+        <v>2500.201508179232</v>
       </c>
       <c r="S7" t="n">
-        <v>2521.619329473852</v>
+        <v>2500.201508179232</v>
       </c>
       <c r="T7" t="n">
-        <v>2275.739883052308</v>
+        <v>2500.201508179232</v>
       </c>
       <c r="U7" t="n">
-        <v>1997.306882305413</v>
+        <v>2264.442554590778</v>
       </c>
       <c r="V7" t="n">
-        <v>1710.351374175843</v>
+        <v>1977.487046461209</v>
       </c>
       <c r="W7" t="n">
-        <v>1438.324969762135</v>
+        <v>1705.4606420475</v>
       </c>
       <c r="X7" t="n">
-        <v>1192.933215095547</v>
+        <v>1460.068887380913</v>
       </c>
       <c r="Y7" t="n">
-        <v>965.5135444096554</v>
+        <v>1232.649216695021</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>927.8253404203546</v>
+        <v>573.6111384008032</v>
       </c>
       <c r="C8" t="n">
-        <v>489.6828676037779</v>
+        <v>138.8319636654689</v>
       </c>
       <c r="D8" t="n">
-        <v>107.3793722531775</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E8" t="n">
-        <v>77.64503145187676</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>1149.495958523325</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>1293.567921177998</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M8" t="n">
-        <v>1293.567921177998</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N8" t="n">
-        <v>1293.567921177998</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
-        <v>1293.567921177998</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719776</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2586.408952615265</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>2586.408952615265</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V8" t="n">
-        <v>2586.408952615265</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W8" t="n">
-        <v>2181.553498026298</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="X8" t="n">
-        <v>1762.411034605609</v>
+        <v>1004.156428545654</v>
       </c>
       <c r="Y8" t="n">
-        <v>1354.124910905262</v>
+        <v>595.8703048453069</v>
       </c>
     </row>
     <row r="9">
@@ -4886,22 +4886,22 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>1064.863269197077</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>1064.863269197077</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1064.863269197077</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1064.863269197077</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1064.863269197077</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4941,13 +4941,13 @@
         <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>624.2616690759949</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>624.2616690759949</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="E10" t="n">
-        <v>624.2616690759949</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="F10" t="n">
         <v>447.554615037751</v>
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651788</v>
       </c>
       <c r="C11" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835211</v>
       </c>
       <c r="D11" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E11" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F11" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771591</v>
       </c>
       <c r="G11" t="n">
-        <v>391.8077842004245</v>
+        <v>391.807784200423</v>
       </c>
       <c r="H11" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436395</v>
       </c>
       <c r="I11" t="n">
         <v>102.2608402707796</v>
@@ -5047,46 +5047,46 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>1832.799255305531</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>2989.847090516082</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N11" t="n">
-        <v>4115.578073952529</v>
+        <v>2588.899621423625</v>
       </c>
       <c r="O11" t="n">
-        <v>4115.578073952529</v>
+        <v>3569.079287993931</v>
       </c>
       <c r="P11" t="n">
-        <v>4943.887948785925</v>
+        <v>4397.389162827328</v>
       </c>
       <c r="Q11" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785922</v>
       </c>
       <c r="R11" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.042013538979</v>
       </c>
       <c r="S11" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T11" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595854</v>
       </c>
       <c r="U11" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912871</v>
       </c>
       <c r="V11" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846697</v>
       </c>
       <c r="W11" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257731</v>
       </c>
       <c r="X11" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y11" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136695</v>
       </c>
     </row>
     <row r="12">
@@ -5099,16 +5099,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D12" t="n">
-        <v>406.885835245268</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E12" t="n">
-        <v>312.7654205722217</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F12" t="n">
-        <v>229.3815821883833</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G12" t="n">
         <v>143.9964924545671</v>
@@ -5120,25 +5120,25 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974495</v>
       </c>
       <c r="K12" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>1327.049347523737</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
         <v>1648.327823655249</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>811.7546776883914</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C13" t="n">
-        <v>811.7546776883914</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D13" t="n">
-        <v>645.8766848899141</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E13" t="n">
-        <v>476.1186811406514</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F13" t="n">
-        <v>299.4116271024076</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G13" t="n">
-        <v>133.8203521282352</v>
+        <v>242.163014580405</v>
       </c>
       <c r="H13" t="n">
         <v>102.2608402707796</v>
@@ -5199,7 +5199,7 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>188.8405254354695</v>
+        <v>188.8405254354694</v>
       </c>
       <c r="K13" t="n">
         <v>463.598980006605</v>
@@ -5226,25 +5226,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T13" t="n">
-        <v>2313.799635050031</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U13" t="n">
-        <v>2035.366634303136</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V13" t="n">
-        <v>1748.411126173566</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W13" t="n">
-        <v>1476.384721759858</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X13" t="n">
-        <v>1230.99296709327</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y13" t="n">
-        <v>1003.573296407379</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="14">
@@ -5260,19 +5260,19 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E14" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771593</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436395</v>
       </c>
       <c r="I14" t="n">
         <v>102.2608402707796</v>
@@ -5281,43 +5281,43 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1286.300469346936</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>1286.300469346936</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2443.348304557487</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>3569.079287993934</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="O14" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P14" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V14" t="n">
         <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
         <v>3363.485741837043</v>
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D15" t="n">
-        <v>3754.427247034661</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E15" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F15" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G15" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>3800.424250186843</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L15" t="n">
-        <v>3800.424250186843</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M15" t="n">
-        <v>4995.869235444641</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N15" t="n">
-        <v>4995.869235444641</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O15" t="n">
-        <v>4995.869235444641</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P15" t="n">
-        <v>4995.869235444641</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q15" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1092.659051657336</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C16" t="n">
-        <v>920.0973401405612</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D16" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E16" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F16" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G16" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H16" t="n">
         <v>102.2608402707796</v>
@@ -5469,19 +5469,19 @@
         <v>2313.799635050031</v>
       </c>
       <c r="U16" t="n">
-        <v>2313.799635050031</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V16" t="n">
-        <v>2026.844126920461</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W16" t="n">
-        <v>1757.289095728803</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X16" t="n">
-        <v>1511.897341062215</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y16" t="n">
-        <v>1284.477670376323</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="17">
@@ -5497,19 +5497,19 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771593</v>
       </c>
       <c r="G17" t="n">
         <v>391.8077842004232</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436395</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5518,49 +5518,49 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1612.575493976557</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2769.623329187108</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="N17" t="n">
-        <v>2769.623329187108</v>
+        <v>4729.704604581732</v>
       </c>
       <c r="O17" t="n">
-        <v>3749.802995757414</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.38916282733</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R17" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5573,16 +5573,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D18" t="n">
-        <v>406.885835245268</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E18" t="n">
-        <v>312.7654205722217</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F18" t="n">
-        <v>229.3815821883833</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G18" t="n">
         <v>143.9964924545671</v>
@@ -5591,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5697,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2292.381813755403</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651788</v>
       </c>
       <c r="C20" t="n">
         <v>2090.757574835212</v>
@@ -5740,13 +5740,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436395</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5755,49 +5755,49 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>3007.131363532228</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="O20" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P20" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5810,16 +5810,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C21" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D21" t="n">
-        <v>406.885835245268</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E21" t="n">
-        <v>312.7654205722217</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F21" t="n">
-        <v>229.3815821883833</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G21" t="n">
         <v>143.9964924545671</v>
@@ -5834,25 +5834,25 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477108</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309357</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324584</v>
+        <v>611.1385207805145</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831957</v>
+        <v>441.3805170312517</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>264.6734629930079</v>
       </c>
       <c r="G22" t="n">
         <v>102.2608402707796</v>
@@ -5934,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2700.681281130895</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T22" t="n">
-        <v>2454.80183470935</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U22" t="n">
-        <v>2176.368833962455</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.413325832886</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.386921419177</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.99516675259</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.575496066698</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651787</v>
       </c>
       <c r="C23" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835211</v>
       </c>
       <c r="D23" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009655</v>
       </c>
       <c r="E23" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.07304516795</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771579</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004213</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436374</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5998,43 +5998,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423625</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423625</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993931</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827328</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785922</v>
       </c>
       <c r="R23" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.042013538979</v>
       </c>
       <c r="S23" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T23" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595854</v>
       </c>
       <c r="U23" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912871</v>
       </c>
       <c r="V23" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846697</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257731</v>
       </c>
       <c r="X23" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136695</v>
       </c>
     </row>
     <row r="24">
@@ -6047,16 +6047,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C24" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D24" t="n">
-        <v>406.885835245268</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E24" t="n">
-        <v>312.7654205722217</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F24" t="n">
-        <v>229.3815821883833</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G24" t="n">
         <v>143.9964924545671</v>
@@ -6068,28 +6068,28 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974495</v>
       </c>
       <c r="K24" t="n">
-        <v>128.3245134312372</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L24" t="n">
-        <v>1082.867562242341</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="M24" t="n">
-        <v>1082.867562242341</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="N24" t="n">
-        <v>1082.867562242341</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>639.1929661716164</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>473.3149733731391</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>303.5569696238763</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>126.8499155856325</v>
+        <v>267.8521152449519</v>
       </c>
       <c r="G25" t="n">
         <v>102.2608402707796</v>
@@ -6147,7 +6147,7 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J25" t="n">
-        <v>188.8405254354695</v>
+        <v>188.8405254354694</v>
       </c>
       <c r="K25" t="n">
         <v>463.598980006605</v>
@@ -6174,25 +6174,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6229,22 +6229,22 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>1612.575493976557</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423627</v>
+        <v>2769.623329187108</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>3895.354312623555</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>4875.533979193861</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>4875.533979193861</v>
       </c>
       <c r="Q26" t="n">
         <v>4943.887948785924</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>970.9960463903949</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>798.4343348736198</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>632.5563420751425</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>462.7983383258798</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>286.091284287636</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>120.5000093134636</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6411,25 +6411,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6463,28 +6463,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6545,13 +6545,13 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
         <v>1107.588885023173</v>
@@ -6691,40 +6691,40 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>475.2748675296863</v>
       </c>
       <c r="K32" t="n">
-        <v>388.1086717343205</v>
+        <v>475.2748675296863</v>
       </c>
       <c r="L32" t="n">
-        <v>1463.16863798718</v>
+        <v>475.2748675296863</v>
       </c>
       <c r="M32" t="n">
-        <v>1463.16863798718</v>
+        <v>1632.322702740237</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S32" t="n">
         <v>5029.390139722817</v>
@@ -6779,28 +6779,28 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6919,10 +6919,10 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F35" t="n">
         <v>793.2056155771595</v>
@@ -6934,55 +6934,55 @@
         <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707797</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>936.6111322289577</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>2011.671098481817</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M35" t="n">
-        <v>3168.718933692368</v>
+        <v>2528.913654892426</v>
       </c>
       <c r="N35" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>3738.233352746991</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>4566.543227580388</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.042013538982</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538982</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722819</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595858</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D36" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E36" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F36" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>4995.869235444642</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
-        <v>5113.042013538982</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S36" t="n">
-        <v>5049.586575987365</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T36" t="n">
-        <v>4919.407932317967</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>4743.071385317935</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V36" t="n">
-        <v>4543.953867379934</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W36" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y36" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="37">
@@ -7086,19 +7086,19 @@
         <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
         <v>881.8088617745661</v>
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
         <v>1654.847790009657</v>
@@ -7162,64 +7162,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771602</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004241</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436397</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236976</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681876</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.925785934735</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.925785934735</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>3572.656769371182</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O38" t="n">
-        <v>4397.389162827331</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.389162827331</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785926</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538982</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722819</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595858</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846701</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257734</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837045</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7244,31 +7244,31 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>143.9964924545672</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H39" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707797</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707797</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>782.9943603411571</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>782.9943603411571</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>782.9943603411571</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>782.9943603411571</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>782.9943603411571</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
         <v>1107.588885023173</v>
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.7568773477108</v>
+        <v>927.0677766831641</v>
       </c>
       <c r="C40" t="n">
-        <v>780.1951658309357</v>
+        <v>754.506065166389</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324584</v>
+        <v>588.6280723679117</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831957</v>
+        <v>418.8700686186489</v>
       </c>
       <c r="F40" t="n">
-        <v>267.852115244952</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707797</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
         <v>881.8088617745661</v>
@@ -7359,25 +7359,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V40" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W40" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X40" t="n">
-        <v>1371.99516675259</v>
+        <v>1346.306066088043</v>
       </c>
       <c r="Y40" t="n">
-        <v>1144.575496066698</v>
+        <v>1118.886395402151</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
         <v>2090.757574835212</v>
@@ -7399,64 +7399,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771596</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004235</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436397</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>537.5155277236976</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>537.5155277236976</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>1612.575493976557</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2769.623329187108</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>3895.354312623555</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O41" t="n">
-        <v>3895.354312623555</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P41" t="n">
-        <v>4723.664187456951</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q41" t="n">
-        <v>5113.042013538982</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.042013538982</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722819</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595858</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.483659846701</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257734</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837045</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136699</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7481,37 +7481,37 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>143.9964924545672</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>102.2608402707797</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1107.552685307369</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L42" t="n">
-        <v>1107.552685307369</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M42" t="n">
-        <v>1107.552685307369</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N42" t="n">
-        <v>1107.552685307369</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O42" t="n">
-        <v>1107.552685307369</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P42" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
         <v>1765.500601749588</v>
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1039.174348374283</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C43" t="n">
-        <v>866.6126368575082</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D43" t="n">
-        <v>700.7346440590309</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E43" t="n">
-        <v>530.9766403097681</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F43" t="n">
-        <v>354.2695862715243</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>188.678311297352</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
         <v>881.8088617745661</v>
@@ -7596,25 +7596,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T43" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U43" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W43" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X43" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>1230.99296709327</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7636,58 +7636,58 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H44" t="n">
         <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>537.5155277236976</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>537.5155277236976</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>1612.575493976557</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2769.623329187108</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>2769.623329187108</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O44" t="n">
-        <v>3749.802995757414</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P44" t="n">
-        <v>4578.11287059081</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q44" t="n">
-        <v>5113.042013538982</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.042013538982</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722819</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595858</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.483659846701</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
         <v>3363.485741837043</v>
@@ -7718,10 +7718,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>143.9964924545672</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
         <v>128.3245134312372</v>
@@ -7730,22 +7730,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>693.7847748441449</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
         <v>1648.327823655249</v>
@@ -7797,19 +7797,19 @@
         <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
         <v>881.8088617745661</v>
@@ -7978,22 +7978,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="K2" t="n">
-        <v>236.2898988798406</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -8060,22 +8060,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>358.9284720888814</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8139,19 +8139,19 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>150.1941962971706</v>
       </c>
       <c r="M4" t="n">
-        <v>298.4303698644311</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -8218,10 +8218,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>630.4048323684631</v>
+        <v>630.4048323684649</v>
       </c>
       <c r="L5" t="n">
-        <v>72.80589558611018</v>
+        <v>72.80589558611382</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8233,7 +8233,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684631</v>
+        <v>630.4048323684651</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8297,10 +8297,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>630.4048323684631</v>
+        <v>630.4048323684651</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>30.91440664741731</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>630.4048323684631</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>65.06686390159825</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,10 +8373,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>130.5917045986984</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
@@ -8394,7 +8394,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>110.4038313238439</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>145.5272350047205</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8467,7 +8467,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>88.52591951400996</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -8476,7 +8476,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>540.0049805212334</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8695,22 +8695,22 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>465.5893289127835</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352428</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
         <v>170.8626916697543</v>
@@ -8768,19 +8768,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>324.5237132641532</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8929,19 +8929,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>756.3484258820594</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -9008,13 +9008,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1207.52018712909</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9166,7 +9166,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
@@ -9175,16 +9175,16 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831379</v>
+        <v>216.3468123274652</v>
       </c>
       <c r="P17" t="n">
-        <v>654.127441484763</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>170.8626916697543</v>
@@ -9239,19 +9239,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9403,28 +9403,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>239.9071053991114</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9482,13 +9482,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>779.6755805253165</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9646,10 +9646,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352428</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9716,13 +9716,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L24" t="n">
-        <v>964.1848977889938</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9731,7 +9731,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>689.5283227345933</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,25 +9877,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>69.04441372935617</v>
       </c>
       <c r="R26" t="n">
         <v>170.8626916697543</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10193,7 +10193,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10202,7 +10202,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10348,16 +10348,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>376.7818457160674</v>
       </c>
       <c r="K32" t="n">
-        <v>288.7351832965059</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
@@ -10372,7 +10372,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,19 +10427,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>407.423047230348</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,22 +10585,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>60.59188538505123</v>
       </c>
       <c r="O35" t="n">
-        <v>575.2670899541654</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458549</v>
@@ -10609,7 +10609,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10834,19 +10834,19 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>314.2706063049986</v>
       </c>
       <c r="O38" t="n">
-        <v>833.0630236930797</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>327.8732572545617</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11062,25 +11062,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>314.2706063049986</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>393.3109354363951</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>118.392906878933</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11299,16 +11299,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>314.2706063049986</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11317,7 +11317,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>540.3324676244165</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -11378,10 +11378,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>243.3352893400963</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23430,10 +23430,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>120.446375214272</v>
       </c>
       <c r="H13" t="n">
-        <v>107.2592358276482</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23466,7 +23466,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23709,13 +23709,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>2.446659489829585</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>111.423652304583</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24141,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>3.146865729424604</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24378,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
@@ -24414,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>120.4463752142721</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24651,7 +24651,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -25563,10 +25563,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25599,7 +25599,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>114.1599680048249</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>52.94985625022264</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25836,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>459831.558912419</v>
+        <v>459831.5589124191</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>489215.3003609845</v>
+        <v>489215.3003609844</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>489215.3003609845</v>
+        <v>489215.3003609844</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>489215.3003609844</v>
+        <v>489215.3003609845</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>489215.3003609845</v>
+        <v>489215.3003609844</v>
       </c>
     </row>
     <row r="15">
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>536147.3198904083</v>
+        <v>536147.3198904085</v>
       </c>
       <c r="C2" t="n">
-        <v>536147.3198904082</v>
+        <v>536147.3198904084</v>
       </c>
       <c r="D2" t="n">
-        <v>536147.3198904083</v>
+        <v>536147.3198904084</v>
       </c>
       <c r="E2" t="n">
-        <v>526857.5841373523</v>
+        <v>526857.5841373521</v>
       </c>
       <c r="F2" t="n">
-        <v>526857.5841373523</v>
+        <v>526857.5841373522</v>
       </c>
       <c r="G2" t="n">
-        <v>526857.5841373522</v>
+        <v>526857.5841373521</v>
       </c>
       <c r="H2" t="n">
-        <v>526857.5841373522</v>
+        <v>526857.5841373521</v>
       </c>
       <c r="I2" t="n">
         <v>526857.5841373522</v>
@@ -26343,16 +26343,16 @@
         <v>526857.5841373522</v>
       </c>
       <c r="L2" t="n">
+        <v>526857.5841373522</v>
+      </c>
+      <c r="M2" t="n">
         <v>526857.5841373523</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>526857.5841373522</v>
       </c>
-      <c r="N2" t="n">
-        <v>526857.5841373523</v>
-      </c>
       <c r="O2" t="n">
-        <v>526857.5841373523</v>
+        <v>526857.5841373522</v>
       </c>
       <c r="P2" t="n">
         <v>526857.5841373522</v>
@@ -26368,13 +26368,13 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>66587.767895016</v>
+        <v>66587.76789501664</v>
       </c>
       <c r="D3" t="n">
-        <v>11527.59554998293</v>
+        <v>11527.59554998231</v>
       </c>
       <c r="E3" t="n">
-        <v>182355.1092210498</v>
+        <v>182355.1092210496</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>111014.4653449904</v>
       </c>
       <c r="K3" t="n">
-        <v>53045.85463877238</v>
+        <v>53045.85463877289</v>
       </c>
       <c r="L3" t="n">
-        <v>9392.301726622443</v>
+        <v>9392.301726621939</v>
       </c>
       <c r="M3" t="n">
-        <v>152200.1709379877</v>
+        <v>152200.1709379875</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>212093.1194372179</v>
       </c>
       <c r="C4" t="n">
-        <v>179718.6327917067</v>
+        <v>179718.6327917063</v>
       </c>
       <c r="D4" t="n">
-        <v>173889.535266443</v>
+        <v>173889.5352664431</v>
       </c>
       <c r="E4" t="n">
         <v>94878.44464875289</v>
       </c>
       <c r="F4" t="n">
-        <v>94878.44464875286</v>
+        <v>94878.44464875296</v>
       </c>
       <c r="G4" t="n">
+        <v>94878.44464875289</v>
+      </c>
+      <c r="H4" t="n">
+        <v>94878.44464875292</v>
+      </c>
+      <c r="I4" t="n">
+        <v>94878.44464875295</v>
+      </c>
+      <c r="J4" t="n">
         <v>94878.44464875288</v>
-      </c>
-      <c r="H4" t="n">
-        <v>94878.44464875283</v>
-      </c>
-      <c r="I4" t="n">
-        <v>94878.44464875285</v>
-      </c>
-      <c r="J4" t="n">
-        <v>94878.44464875289</v>
       </c>
       <c r="K4" t="n">
         <v>94878.44464875289</v>
       </c>
       <c r="L4" t="n">
-        <v>94878.44464875288</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="M4" t="n">
-        <v>94878.44464875288</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="N4" t="n">
-        <v>94878.44464875286</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="O4" t="n">
-        <v>94878.44464875282</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="P4" t="n">
-        <v>94878.4446487528</v>
+        <v>94878.44464875289</v>
       </c>
     </row>
     <row r="5">
@@ -26472,25 +26472,25 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>71956.21380800256</v>
+        <v>71956.21380800268</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579247</v>
       </c>
       <c r="F5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579249</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579249</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579249</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579247</v>
       </c>
       <c r="J5" t="n">
         <v>77718.23860579252</v>
@@ -26502,16 +26502,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579253</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579253</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.23860579253</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.23860579253</v>
+        <v>77718.2386057925</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>122438.1116562581</v>
+        <v>122438.1116562583</v>
       </c>
       <c r="C6" t="n">
-        <v>217884.7053956829</v>
+        <v>217884.7053956828</v>
       </c>
       <c r="D6" t="n">
-        <v>276517.6645122247</v>
+        <v>276517.6645122254</v>
       </c>
       <c r="E6" t="n">
-        <v>171905.7916617571</v>
+        <v>171882.5673223744</v>
       </c>
       <c r="F6" t="n">
-        <v>354260.9008828069</v>
+        <v>354237.6765434241</v>
       </c>
       <c r="G6" t="n">
-        <v>354260.9008828068</v>
+        <v>354237.676543424</v>
       </c>
       <c r="H6" t="n">
-        <v>354260.9008828069</v>
+        <v>354237.676543424</v>
       </c>
       <c r="I6" t="n">
-        <v>354260.9008828068</v>
+        <v>354237.6765434241</v>
       </c>
       <c r="J6" t="n">
-        <v>243246.4355378166</v>
+        <v>243223.2111984338</v>
       </c>
       <c r="K6" t="n">
-        <v>301215.0462440344</v>
+        <v>301191.8219046512</v>
       </c>
       <c r="L6" t="n">
-        <v>344868.5991561845</v>
+        <v>344845.3748168022</v>
       </c>
       <c r="M6" t="n">
-        <v>202060.7299448191</v>
+        <v>202037.5056054367</v>
       </c>
       <c r="N6" t="n">
-        <v>354260.900882807</v>
+        <v>354237.6765434241</v>
       </c>
       <c r="O6" t="n">
-        <v>354260.900882807</v>
+        <v>354237.6765434241</v>
       </c>
       <c r="P6" t="n">
-        <v>354260.9008828069</v>
+        <v>354237.6765434241</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26792,7 +26792,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>630.4048323684631</v>
+        <v>630.404832368465</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
@@ -26822,16 +26822,16 @@
         <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
-        <v>1278.260503384746</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
-        <v>1278.260503384746</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1278.260503384746</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1278.260503384746</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>206.1089748483587</v>
+        <v>206.1089748483607</v>
       </c>
       <c r="D4" t="n">
-        <v>37.11037423939391</v>
+        <v>37.11037423939192</v>
       </c>
       <c r="E4" t="n">
-        <v>610.7452967768884</v>
+        <v>610.7452967768877</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201051</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483587</v>
+        <v>206.1089748483607</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939391</v>
+        <v>37.11037423939192</v>
       </c>
       <c r="M4" t="n">
-        <v>610.7452967768886</v>
+        <v>610.7452967768875</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483587</v>
+        <v>206.1089748483607</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939391</v>
+        <v>37.11037423939192</v>
       </c>
       <c r="M4" t="n">
-        <v>610.7452967768884</v>
+        <v>610.7452967768877</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>196.5432550408247</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
@@ -27390,7 +27390,7 @@
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>155.9466570854678</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27399,7 +27399,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27438,7 +27438,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12.63025464585155</v>
+        <v>151.8336134519758</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>111.2440434342815</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -27678,10 +27678,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>113.8601903713055</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27782,19 +27782,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>13.3623195732913</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>42.24730668685672</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>3.329665100430077</v>
       </c>
       <c r="D8" t="n">
-        <v>53.07022658020554</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28013,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>54.79268646174569</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
@@ -28022,7 +28022,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>54.79268646174563</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,22 +28377,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>-6.762038464916634e-13</v>
+        <v>1.1778748630731e-12</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28800,10 +28800,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="C20" t="n">
-        <v>-9.604209407957034e-13</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -28821,7 +28821,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
     </row>
     <row r="21">
@@ -29058,7 +29058,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-12</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29097,7 +29097,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>-9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -29988,7 +29988,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>-3.041348829504145e-13</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-6.936877707947525e-14</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>-6.936877707947525e-14</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-6.936877707947525e-14</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>-6.936877707947525e-14</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>-6.936877707947525e-14</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>-6.936877707947525e-14</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>-6.936877707947525e-14</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>-6.936877707947525e-14</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>-6.936877707947525e-14</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>-6.936877707947525e-14</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>-6.936877707947525e-14</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>-6.936877707947525e-14</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>-6.936877707947525e-14</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>-6.936877707947525e-14</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>-6.936877707947525e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30714,7 +30714,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>-6.936877707947525e-14</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30747,19 +30747,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>-6.936877707947525e-14</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>-6.936877707947525e-14</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>-6.936877707947525e-14</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>-6.936877707947525e-14</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>-2.046363078989089e-12</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -34698,22 +34698,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="K2" t="n">
-        <v>236.2898988798406</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -34780,22 +34780,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>358.9284720888814</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34859,19 +34859,19 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>150.1941962971706</v>
       </c>
       <c r="M4" t="n">
-        <v>298.4303698644311</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34938,10 +34938,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>630.4048323684631</v>
+        <v>630.4048323684649</v>
       </c>
       <c r="L5" t="n">
-        <v>72.80589558611018</v>
+        <v>72.80589558611382</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34953,7 +34953,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684631</v>
+        <v>630.4048323684651</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35017,10 +35017,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>630.4048323684631</v>
+        <v>630.4048323684651</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>30.91440664741731</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35032,13 +35032,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>630.4048323684631</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>65.06686390159825</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094343</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,13 +35093,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908065</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>130.5917045986984</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M7" t="n">
         <v>464.1251183645586</v>
@@ -35108,13 +35108,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>110.4038313238439</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>145.5272350047205</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35187,7 +35187,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>88.52591951400996</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -35196,7 +35196,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35269,10 +35269,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>540.0049805212334</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35415,22 +35415,22 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>465.5893289127835</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352428</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
         <v>170.862691669754</v>
@@ -35488,19 +35488,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>324.5237132641532</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35509,7 +35509,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35649,19 +35649,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>756.3484258820594</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458546</v>
@@ -35722,19 +35722,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1207.52018712909</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35746,7 +35746,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35886,25 +35886,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081364</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831377</v>
+        <v>216.3468123274652</v>
       </c>
       <c r="P17" t="n">
-        <v>654.127441484763</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>170.862691669754</v>
@@ -35959,19 +35959,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35983,10 +35983,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>239.9071053991114</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,13 +36202,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>779.6755805253165</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36223,7 +36223,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36366,10 +36366,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352428</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36436,13 +36436,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L24" t="n">
-        <v>964.1848977889938</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36451,7 +36451,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>689.5283227345933</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36597,25 +36597,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081364</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831377</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>69.04441372935617</v>
       </c>
       <c r="R26" t="n">
         <v>170.862691669754</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36922,7 +36922,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -37068,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>376.7818457160674</v>
       </c>
       <c r="K32" t="n">
-        <v>288.7351832965059</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
@@ -37092,7 +37092,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,19 +37147,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>407.423047230348</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37168,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,22 +37305,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>60.59188538505123</v>
       </c>
       <c r="O35" t="n">
-        <v>575.2670899541654</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458546</v>
@@ -37329,7 +37329,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632091</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J36" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
         <v>661.3192390158824</v>
@@ -37405,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132081</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37463,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
         <v>464.1251183645586</v>
@@ -37542,10 +37542,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -37554,19 +37554,19 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>314.2706063049986</v>
       </c>
       <c r="O38" t="n">
-        <v>833.0630236930797</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37639,7 +37639,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>327.8732572545617</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37700,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37779,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081364</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>314.2706063049986</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>393.3109354363951</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327043</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37876,13 +37876,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>118.392906878933</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -38016,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081364</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>314.2706063049986</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38037,7 +38037,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>540.3324676244165</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>243.3352893400963</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38116,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
